--- a/General Code/Analysis Template/Analysis.xlsx
+++ b/General Code/Analysis Template/Analysis.xlsx
@@ -13,7 +13,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>z_num</t>
+  </si>
+  <si>
+    <t>effective_pixel_count</t>
+  </si>
+  <si>
+    <t>G_sum</t>
+  </si>
+  <si>
+    <t>S_sum</t>
+  </si>
+  <si>
+    <t>Free_LEXT</t>
+  </si>
+  <si>
+    <t>G_int</t>
+  </si>
+  <si>
+    <t>S_int</t>
+  </si>
+  <si>
+    <t>tao</t>
+  </si>
+  <si>
+    <t>Free_LR</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>z_num</t>
+  </si>
+  <si>
+    <t>effective_pixel_count</t>
+  </si>
+  <si>
+    <t>G_sum</t>
+  </si>
+  <si>
+    <t>S_sum</t>
+  </si>
+  <si>
+    <t>Free_LEXT</t>
+  </si>
+  <si>
+    <t>G_int</t>
+  </si>
+  <si>
+    <t>S_int</t>
+  </si>
+  <si>
+    <t>tao</t>
+  </si>
+  <si>
+    <t>Free_LR</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>z_num</t>
+  </si>
+  <si>
+    <t>effective_pixel_count</t>
+  </si>
+  <si>
+    <t>G_sum</t>
+  </si>
+  <si>
+    <t>S_sum</t>
+  </si>
+  <si>
+    <t>Free_LEXT</t>
+  </si>
+  <si>
+    <t>G_int</t>
+  </si>
+  <si>
+    <t>S_int</t>
+  </si>
+  <si>
+    <t>tao</t>
+  </si>
+  <si>
+    <t>Free_LR</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -72,7 +189,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -82,14 +199,20 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -99,15 +222,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.046875" customWidth="true"/>
-    <col min="2" max="2" width="6.48828125" customWidth="true"/>
-    <col min="3" max="3" width="18.82421875" customWidth="true"/>
+    <col min="1" max="1" width="6.07421875" customWidth="true"/>
+    <col min="2" max="2" width="6.8046875" customWidth="true"/>
+    <col min="3" max="3" width="18.89453125" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="15.34765625" customWidth="true"/>
     <col min="7" max="7" width="12.7109375" customWidth="true"/>
     <col min="8" max="8" width="12.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
@@ -116,130 +239,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="0">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>71060</v>
-      </c>
-      <c r="D2">
-        <v>0.57375423765646727</v>
-      </c>
-      <c r="E2">
-        <v>0.33714631867176637</v>
-      </c>
-      <c r="F2">
-        <v>0.43389296732650967</v>
-      </c>
-      <c r="G2">
-        <v>0.27683854046334266</v>
-      </c>
-      <c r="H2">
-        <v>0.44743598757528308</v>
-      </c>
-      <c r="I2">
-        <v>3.2153962839054007</v>
-      </c>
-      <c r="J2">
-        <v>0.43517516369364923</v>
+      <c r="C2" s="0">
+        <v>224494</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.56557560316139766</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.49610739912645591</v>
+      </c>
+      <c r="F2" s="0">
+        <v>-0.0017060274525993804</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0.56624930580851418</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.4955915954492065</v>
+      </c>
+      <c r="I2" s="0">
+        <v>1.7411909242413524</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0.19608000076285698</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="0">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>30479</v>
-      </c>
-      <c r="D3">
-        <v>0.57463320623342173</v>
-      </c>
-      <c r="E3">
-        <v>0.33994736405835546</v>
-      </c>
-      <c r="F3">
-        <v>0.42987156888856659</v>
-      </c>
-      <c r="G3">
-        <v>0.28320699487026796</v>
-      </c>
-      <c r="H3">
-        <v>0.45055609298601207</v>
-      </c>
-      <c r="I3">
-        <v>3.1650096324308525</v>
-      </c>
-      <c r="J3">
-        <v>0.43497798068875437</v>
+      <c r="C3" s="0">
+        <v>161799</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.56948571702453987</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.34172498082822084</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.42258029024299043</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.28285291037006</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.45038554757590388</v>
+      </c>
+      <c r="I3" s="0">
+        <v>3.1677721691140568</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.32517610022514032</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+        <v>41</v>
+      </c>
+      <c r="B4" s="0">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>49403</v>
-      </c>
-      <c r="D4">
-        <v>0.57113534432870372</v>
-      </c>
-      <c r="E4">
-        <v>0.33182779947916669</v>
-      </c>
-      <c r="F4">
-        <v>0.4404176461891241</v>
-      </c>
-      <c r="G4">
-        <v>0.26417950605526341</v>
-      </c>
-      <c r="H4">
-        <v>0.44089533297105837</v>
-      </c>
-      <c r="I4">
-        <v>3.32021740994796</v>
-      </c>
-      <c r="J4">
-        <v>0.434331365636342</v>
+      <c r="C4" s="0">
+        <v>190805</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.5451606131454162</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.49847598623551104</v>
+      </c>
+      <c r="F4" s="0">
+        <v>-0.0019488625763964603</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0.54596973240367996</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0.49788229904540093</v>
+      </c>
+      <c r="I4" s="0">
+        <v>1.8142129560500044</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0.16520306859084402</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0">
+        <v>105421</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.56561175847457623</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.34069026180387407</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.42112039903770304</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0.27787134580776085</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0.44794961880410683</v>
+      </c>
+      <c r="I5" s="0">
+        <v>3.2071225211058012</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0.32050460284591731</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0">
+        <v>258543</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.55429950547138052</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.49978146853146854</v>
+      </c>
+      <c r="F6" s="0">
+        <v>-0.010632521806869809</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0.55857978732764435</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0.49655655117685032</v>
+      </c>
+      <c r="I6" s="0">
+        <v>1.7685349398013435</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0.17713207401101785</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2</v>
+      </c>
+      <c r="C7" s="0">
+        <v>154076</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.55119748975409832</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.34084762234811955</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.40867242194394099</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0.26787875294762531</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0.44285406926757537</v>
+      </c>
+      <c r="I7" s="0">
+        <v>3.2889139870527404</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0.29991593864508831</v>
       </c>
     </row>
   </sheetData>

--- a/General Code/Analysis Template/Analysis.xlsx
+++ b/General Code/Analysis Template/Analysis.xlsx
@@ -13,7 +13,163 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>z_num</t>
+  </si>
+  <si>
+    <t>effective_pixel_count</t>
+  </si>
+  <si>
+    <t>G_sum</t>
+  </si>
+  <si>
+    <t>S_sum</t>
+  </si>
+  <si>
+    <t>Free_LEXT</t>
+  </si>
+  <si>
+    <t>G_int</t>
+  </si>
+  <si>
+    <t>S_int</t>
+  </si>
+  <si>
+    <t>tao</t>
+  </si>
+  <si>
+    <t>Free_LR</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>z_num</t>
+  </si>
+  <si>
+    <t>effective_pixel_count</t>
+  </si>
+  <si>
+    <t>G_sum</t>
+  </si>
+  <si>
+    <t>S_sum</t>
+  </si>
+  <si>
+    <t>Free_LEXT</t>
+  </si>
+  <si>
+    <t>G_int</t>
+  </si>
+  <si>
+    <t>S_int</t>
+  </si>
+  <si>
+    <t>tao</t>
+  </si>
+  <si>
+    <t>Free_LR</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>z_num</t>
+  </si>
+  <si>
+    <t>effective_pixel_count</t>
+  </si>
+  <si>
+    <t>G_sum</t>
+  </si>
+  <si>
+    <t>S_sum</t>
+  </si>
+  <si>
+    <t>Free_LEXT</t>
+  </si>
+  <si>
+    <t>G_int</t>
+  </si>
+  <si>
+    <t>S_int</t>
+  </si>
+  <si>
+    <t>tao</t>
+  </si>
+  <si>
+    <t>Free_LR</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>z_num</t>
+  </si>
+  <si>
+    <t>effective_pixel_count</t>
+  </si>
+  <si>
+    <t>G_sum</t>
+  </si>
+  <si>
+    <t>S_sum</t>
+  </si>
+  <si>
+    <t>Free_LEXT</t>
+  </si>
+  <si>
+    <t>G_int</t>
+  </si>
+  <si>
+    <t>S_int</t>
+  </si>
+  <si>
+    <t>tao</t>
+  </si>
+  <si>
+    <t>Free_LR</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -189,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -202,17 +358,25 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -230,7 +394,7 @@
     <col min="3" max="3" width="18.89453125" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
-    <col min="6" max="6" width="15.34765625" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
     <col min="7" max="7" width="12.7109375" customWidth="true"/>
     <col min="8" max="8" width="12.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
@@ -239,226 +403,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>224494</v>
+        <v>108030</v>
       </c>
       <c r="D2" s="0">
-        <v>0.56557560316139766</v>
+        <v>0.65859363670254922</v>
       </c>
       <c r="E2" s="0">
-        <v>0.49610739912645591</v>
+        <v>0.40977131178314075</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.0017060274525993804</v>
+        <v>0.29144738545506971</v>
       </c>
       <c r="G2" s="0">
-        <v>0.56624930580851418</v>
+        <v>0.53414591100501929</v>
       </c>
       <c r="H2" s="0">
-        <v>0.4955915954492065</v>
+        <v>0.49883269415871018</v>
       </c>
       <c r="I2" s="0">
-        <v>1.7411909242413524</v>
+        <v>1.8579120287054935</v>
       </c>
       <c r="J2" s="0">
-        <v>0.19608000076285698</v>
+        <v>0.4387998739250778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="B3" s="0">
         <v>2</v>
       </c>
       <c r="C3" s="0">
-        <v>161799</v>
+        <v>71060</v>
       </c>
       <c r="D3" s="0">
-        <v>0.56948571702453987</v>
+        <v>0.56838435281568289</v>
       </c>
       <c r="E3" s="0">
-        <v>0.34172498082822084</v>
+        <v>0.33658703952447239</v>
       </c>
       <c r="F3" s="0">
-        <v>0.42258029024299043</v>
+        <v>0.43029951598133731</v>
       </c>
       <c r="G3" s="0">
-        <v>0.28285291037006</v>
+        <v>0.27172907772377769</v>
       </c>
       <c r="H3" s="0">
-        <v>0.45038554757590388</v>
+        <v>0.44485097059932655</v>
       </c>
       <c r="I3" s="0">
-        <v>3.1677721691140568</v>
+        <v>3.2569311086979611</v>
       </c>
       <c r="J3" s="0">
-        <v>0.32517610022514032</v>
+        <v>0.36501828368903971</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>190805</v>
+        <v>55027</v>
       </c>
       <c r="D4" s="0">
-        <v>0.5451606131454162</v>
+        <v>0.67159961836163173</v>
       </c>
       <c r="E4" s="0">
-        <v>0.49847598623551104</v>
+        <v>0.39573970254948571</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0019488625763964603</v>
+        <v>0.33871633732177586</v>
       </c>
       <c r="G4" s="0">
-        <v>0.54596973240367996</v>
+        <v>0.52329155113332315</v>
       </c>
       <c r="H4" s="0">
-        <v>0.49788229904540093</v>
+        <v>0.4994572090237599</v>
       </c>
       <c r="I4" s="0">
-        <v>1.8142129560500044</v>
+        <v>1.8988239803140068</v>
       </c>
       <c r="J4" s="0">
-        <v>0.16520306859084402</v>
+        <v>0.46613273761150692</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B5" s="0">
         <v>2</v>
       </c>
       <c r="C5" s="0">
-        <v>105421</v>
+        <v>30479</v>
       </c>
       <c r="D5" s="0">
-        <v>0.56561175847457623</v>
+        <v>0.56326616893034032</v>
       </c>
       <c r="E5" s="0">
-        <v>0.34069026180387407</v>
+        <v>0.33994545166261092</v>
       </c>
       <c r="F5" s="0">
-        <v>0.42112039903770304</v>
+        <v>0.42040163940812897</v>
       </c>
       <c r="G5" s="0">
-        <v>0.27787134580776085</v>
+        <v>0.27467175061173937</v>
       </c>
       <c r="H5" s="0">
-        <v>0.44794961880410683</v>
+        <v>0.44634872020385791</v>
       </c>
       <c r="I5" s="0">
-        <v>3.2071225211058012</v>
+        <v>3.2328863909817178</v>
       </c>
       <c r="J5" s="0">
-        <v>0.32050460284591731</v>
+        <v>0.35573135256514471</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="B6" s="0">
         <v>1</v>
       </c>
       <c r="C6" s="0">
-        <v>258543</v>
+        <v>97027</v>
       </c>
       <c r="D6" s="0">
-        <v>0.55429950547138052</v>
+        <v>0.63008577975056335</v>
       </c>
       <c r="E6" s="0">
-        <v>0.49978146853146854</v>
+        <v>0.43562206324287478</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.010632521806869809</v>
+        <v>0.20463009580459368</v>
       </c>
       <c r="G6" s="0">
-        <v>0.55857978732764435</v>
+        <v>0.5449120136294695</v>
       </c>
       <c r="H6" s="0">
-        <v>0.49655655117685032</v>
+        <v>0.49797882588695108</v>
       </c>
       <c r="I6" s="0">
-        <v>1.7685349398013435</v>
+        <v>1.8180869046892378</v>
       </c>
       <c r="J6" s="0">
-        <v>0.17713207401101785</v>
+        <v>0.38222019075684727</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="B7" s="0">
         <v>2</v>
       </c>
       <c r="C7" s="0">
-        <v>154076</v>
+        <v>49403</v>
       </c>
       <c r="D7" s="0">
-        <v>0.55119748975409832</v>
+        <v>0.56000222453141124</v>
       </c>
       <c r="E7" s="0">
-        <v>0.34084762234811955</v>
+        <v>0.33598008470158608</v>
       </c>
       <c r="F7" s="0">
-        <v>0.40867242194394099</v>
+        <v>0.42412708025438156</v>
       </c>
       <c r="G7" s="0">
-        <v>0.26787875294762531</v>
+        <v>0.26456299373030023</v>
       </c>
       <c r="H7" s="0">
-        <v>0.44285406926757537</v>
+        <v>0.44110023359635775</v>
       </c>
       <c r="I7" s="0">
-        <v>3.2889139870527404</v>
+        <v>3.3169455025622558</v>
       </c>
       <c r="J7" s="0">
-        <v>0.29991593864508831</v>
+        <v>0.35395650926464806</v>
       </c>
     </row>
   </sheetData>
